--- a/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>880</v>
+        <v>810</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>97.09999999999999</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>880</v>
+        <v>810</v>
       </c>
     </row>
     <row r="5"/>

--- a/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>810</v>
+        <v>591</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>89.3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>810</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5"/>

--- a/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>591</v>
+        <v>159</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>91</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>591</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5"/>

--- a/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="81" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="68" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,7 +490,7 @@
         <v>159</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>97.90000000000001</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="4">
@@ -522,25 +519,54 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
@@ -550,24 +576,40 @@
           <t>Killer(R) Wi-Fi 6 AX1650s 160MHz Wireless Network Adapter (201D2W) - 22.250.0.4</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" t="n">
+        <v>58781</v>
+      </c>
+      <c r="C12" t="n">
+        <v>52</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>96</v>
+      </c>
+      <c r="F12" t="n">
         <v>58842</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" s="4" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>killer(r) wi-fi 6 ax1650s 160mhz wireless network adapter (201d2w)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
     </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/StanfordUniv_driver_summary.xlsx
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>159</v>
+        <v>295</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>97.7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>159</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5"/>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58781</v>
+        <v>59372</v>
       </c>
       <c r="C12" t="n">
         <v>52</v>
@@ -586,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F12" t="n">
-        <v>58842</v>
+        <v>59433</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
